--- a/biology/Botanique/Trémelle_fucus/Trémelle_fucus.xlsx
+++ b/biology/Botanique/Trémelle_fucus/Trémelle_fucus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tr%C3%A9melle_fucus</t>
+          <t>Trémelle_fucus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Tremella fuciformis
 Tremella fuciformis, ou trémelle fucus est une espèce de champignon basidiomycète de l'ordre des Tremellales, qui pousse en touffes importantes sur les arbres, de couleur blanc cassé et translucide.  
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tr%C3%A9melle_fucus</t>
+          <t>Trémelle_fucus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t xml:space="preserve">Synonymes  </t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tremella fuciformis Berkeley (1856) , in W.J. Hooker, Journal of botany and Kew Garden miscellany, 8, p. 277 (Basionyme) (nom actuel)
 Nakaiomyces nipponicus Kobayasi (1939) , Science reports of the Tokyo Bunrika Daigaku, section B, 4, p. 4
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tr%C3%A9melle_fucus</t>
+          <t>Trémelle_fucus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sporophores gélatineux, blanchâtre aqueux, jusqu'à 7,5 cm (plus grands en culture), constitués frondes branchues minces mais dressées, semblables à des algues, souvent crispées à la marge. 
 Microscopie: les hyphes sont munies de boucles et se résolvent en matière gélatineuse dense. Les cellules des hyphes produisent des filaments pénétrant les hyphes de l'hôte. Basides tremelloïdes, ellipsoïdes à cloison oblique à verticale, 10–13 sur 6,5–10 μm, parfois stipitées. Basidiospores ellipsoïdes, lisses, 5–8 x 4–6 μm.
